--- a/rosters/2023/San Antonio/San Antonio.xlsx
+++ b/rosters/2023/San Antonio/San Antonio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
   <si>
     <t>No.</t>
   </si>
@@ -49,52 +49,49 @@
     <t>Tre Jones</t>
   </si>
   <si>
+    <t>Keldon Johnson</t>
+  </si>
+  <si>
     <t>Doug McDermott</t>
   </si>
   <si>
-    <t>Keldon Johnson</t>
-  </si>
-  <si>
     <t>Jeremy Sochan</t>
   </si>
   <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Josh Richardson</t>
-  </si>
-  <si>
     <t>Zach Collins</t>
   </si>
   <si>
+    <t>Malaki Branham</t>
+  </si>
+  <si>
+    <t>Keita Bates-Diop</t>
+  </si>
+  <si>
     <t>Isaiah Roby</t>
   </si>
   <si>
-    <t>Keita Bates-Diop</t>
+    <t>Romeo Langford</t>
+  </si>
+  <si>
+    <t>Stanley Johnson</t>
   </si>
   <si>
     <t>Devin Vassell</t>
   </si>
   <si>
-    <t>Malaki Branham</t>
-  </si>
-  <si>
-    <t>Romeo Langford</t>
-  </si>
-  <si>
     <t>Charles Bassey (TW)</t>
   </si>
   <si>
-    <t>Stanley Johnson</t>
-  </si>
-  <si>
-    <t>Gorgui Dieng</t>
+    <t>Blake Wesley</t>
   </si>
   <si>
     <t>Dominick Barlow (TW)</t>
   </si>
   <si>
-    <t>Blake Wesley</t>
+    <t>Devonte' Graham</t>
+  </si>
+  <si>
+    <t>Khem Birch</t>
   </si>
   <si>
     <t>PG</t>
@@ -115,18 +112,15 @@
     <t>6-1</t>
   </si>
   <si>
+    <t>6-5</t>
+  </si>
+  <si>
     <t>6-7</t>
   </si>
   <si>
-    <t>6-5</t>
-  </si>
-  <si>
     <t>6-9</t>
   </si>
   <si>
-    <t>7-1</t>
-  </si>
-  <si>
     <t>6-11</t>
   </si>
   <si>
@@ -139,193 +133,175 @@
     <t>6-6</t>
   </si>
   <si>
-    <t>6-10</t>
-  </si>
-  <si>
     <t>January 8, 2000</t>
   </si>
   <si>
+    <t>October 11, 1999</t>
+  </si>
+  <si>
     <t>January 3, 1992</t>
   </si>
   <si>
-    <t>October 11, 1999</t>
-  </si>
-  <si>
     <t>May 20, 2003</t>
   </si>
   <si>
-    <t>October 15, 1995</t>
-  </si>
-  <si>
-    <t>September 15, 1993</t>
-  </si>
-  <si>
     <t>November 19, 1997</t>
   </si>
   <si>
+    <t>May 12, 2003</t>
+  </si>
+  <si>
+    <t>January 23, 1996</t>
+  </si>
+  <si>
     <t>February 3, 1998</t>
   </si>
   <si>
-    <t>January 23, 1996</t>
+    <t>October 25, 1999</t>
+  </si>
+  <si>
+    <t>May 29, 1996</t>
   </si>
   <si>
     <t>August 23, 2000</t>
   </si>
   <si>
-    <t>May 12, 2003</t>
-  </si>
-  <si>
-    <t>October 25, 1999</t>
-  </si>
-  <si>
     <t>October 28, 2000</t>
   </si>
   <si>
-    <t>May 29, 1996</t>
-  </si>
-  <si>
-    <t>January 18, 1990</t>
+    <t>March 16, 2003</t>
   </si>
   <si>
     <t>May 26, 2003</t>
   </si>
   <si>
-    <t>March 16, 2003</t>
+    <t>February 22, 1995</t>
+  </si>
+  <si>
+    <t>September 28, 1992</t>
   </si>
   <si>
     <t>us</t>
   </si>
   <si>
-    <t>at</t>
-  </si>
-  <si>
     <t>ng</t>
   </si>
   <si>
-    <t>sn</t>
+    <t>ca</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
-    <t>6</t>
+    <t>4</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>9</t>
+    <t>5</t>
   </si>
   <si>
     <t>Duke</t>
   </si>
   <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
     <t>Creighton</t>
   </si>
   <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
     <t>Baylor</t>
   </si>
   <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
     <t>Gonzaga</t>
   </si>
   <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
     <t>Nebraska</t>
   </si>
   <si>
-    <t>Ohio State</t>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Arizona</t>
   </si>
   <si>
     <t>Florida State</t>
   </si>
   <si>
-    <t>Indiana</t>
-  </si>
-  <si>
     <t>Western Kentucky</t>
   </si>
   <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
     <t>Notre Dame</t>
   </si>
   <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Pitt, UNLV</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/j/jonestr01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/j/johnske04.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/mcderdo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/j/johnske04.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/s/sochaje01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/p/poeltja01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/r/richajo01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/c/colliza01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/branhma01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/bateske01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/r/robyis01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/bateske01.html</t>
+    <t>https://www.basketball-reference.com/players/l/langfro01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/j/johnsst04.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/v/vassede01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/branhma01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/l/langfro01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/bassech01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/j/johnsst04.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/d/dienggo01.html</t>
+    <t>https://www.basketball-reference.com/players/w/weslebl01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/barlodo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/w/weslebl01.html</t>
+    <t>https://www.basketball-reference.com/players/g/grahade01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/birchkh01.html</t>
   </si>
 </sst>
 </file>
@@ -696,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -745,28 +721,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>185</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -774,34 +750,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
         <v>59</v>
       </c>
-      <c r="I3" t="s">
-        <v>64</v>
-      </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -809,34 +785,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -850,28 +826,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5">
         <v>230</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -879,34 +855,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -914,34 +890,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -949,34 +925,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -990,28 +966,28 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9">
         <v>230</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
         <v>59</v>
       </c>
-      <c r="I9" t="s">
-        <v>65</v>
-      </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1019,34 +995,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
         <v>59</v>
       </c>
-      <c r="I10" t="s">
-        <v>69</v>
-      </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1054,34 +1030,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F11">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
         <v>63</v>
       </c>
       <c r="J11" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1089,34 +1065,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1124,34 +1100,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F13">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1159,7 +1135,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1168,25 +1144,25 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F14">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" t="s">
         <v>61</v>
       </c>
-      <c r="I14" t="s">
-        <v>70</v>
-      </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1194,34 +1170,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F15">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1229,101 +1202,66 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F16">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" t="s">
         <v>62</v>
       </c>
-      <c r="I16" t="s">
-        <v>71</v>
-      </c>
       <c r="J16" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>26</v>
-      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" t="s">
         <v>57</v>
       </c>
-      <c r="H17" t="s">
-        <v>59</v>
-      </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="J17" t="s">
+        <v>79</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18">
-        <v>185</v>
-      </c>
-      <c r="G18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" t="s">
-        <v>86</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1344,7 +1282,6 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
-    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/San Antonio/San Antonio.xlsx
+++ b/rosters/2023/San Antonio/San Antonio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="101">
   <si>
     <t>No.</t>
   </si>
@@ -46,21 +46,21 @@
     <t>bbref url</t>
   </si>
   <si>
+    <t>Keldon Johnson</t>
+  </si>
+  <si>
     <t>Tre Jones</t>
   </si>
   <si>
-    <t>Keldon Johnson</t>
-  </si>
-  <si>
     <t>Doug McDermott</t>
   </si>
   <si>
+    <t>Zach Collins</t>
+  </si>
+  <si>
     <t>Jeremy Sochan</t>
   </si>
   <si>
-    <t>Zach Collins</t>
-  </si>
-  <si>
     <t>Malaki Branham</t>
   </si>
   <si>
@@ -73,13 +73,13 @@
     <t>Romeo Langford</t>
   </si>
   <si>
-    <t>Stanley Johnson</t>
-  </si>
-  <si>
     <t>Devin Vassell</t>
   </si>
   <si>
-    <t>Charles Bassey (TW)</t>
+    <t>Charles Bassey</t>
+  </si>
+  <si>
+    <t>Gorgui Dieng</t>
   </si>
   <si>
     <t>Blake Wesley</t>
@@ -91,63 +91,66 @@
     <t>Devonte' Graham</t>
   </si>
   <si>
+    <t>Julian Champagnie (TW)</t>
+  </si>
+  <si>
     <t>Khem Birch</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SF</t>
+    <t>C</t>
   </si>
   <si>
     <t>PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
+    <t>6-5</t>
+  </si>
+  <si>
     <t>6-1</t>
   </si>
   <si>
-    <t>6-5</t>
-  </si>
-  <si>
     <t>6-7</t>
   </si>
   <si>
+    <t>6-11</t>
+  </si>
+  <si>
     <t>6-9</t>
   </si>
   <si>
-    <t>6-11</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
     <t>6-4</t>
   </si>
   <si>
-    <t>6-6</t>
+    <t>6-10</t>
+  </si>
+  <si>
+    <t>October 11, 1999</t>
   </si>
   <si>
     <t>January 8, 2000</t>
   </si>
   <si>
-    <t>October 11, 1999</t>
-  </si>
-  <si>
     <t>January 3, 1992</t>
   </si>
   <si>
+    <t>November 19, 1997</t>
+  </si>
+  <si>
     <t>May 20, 2003</t>
   </si>
   <si>
-    <t>November 19, 1997</t>
-  </si>
-  <si>
     <t>May 12, 2003</t>
   </si>
   <si>
@@ -160,15 +163,15 @@
     <t>October 25, 1999</t>
   </si>
   <si>
-    <t>May 29, 1996</t>
-  </si>
-  <si>
     <t>August 23, 2000</t>
   </si>
   <si>
     <t>October 28, 2000</t>
   </si>
   <si>
+    <t>January 18, 1990</t>
+  </si>
+  <si>
     <t>March 16, 2003</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
     <t>February 22, 1995</t>
   </si>
   <si>
+    <t>June 29, 2001</t>
+  </si>
+  <si>
     <t>September 28, 1992</t>
   </si>
   <si>
@@ -187,48 +193,51 @@
     <t>ng</t>
   </si>
   <si>
+    <t>sn</t>
+  </si>
+  <si>
     <t>ca</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
     <t>Duke</t>
   </si>
   <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
     <t>Creighton</t>
   </si>
   <si>
+    <t>Gonzaga</t>
+  </si>
+  <si>
     <t>Baylor</t>
   </si>
   <si>
-    <t>Gonzaga</t>
-  </si>
-  <si>
     <t>Ohio State</t>
   </si>
   <si>
@@ -238,39 +247,42 @@
     <t>Indiana</t>
   </si>
   <si>
-    <t>Arizona</t>
-  </si>
-  <si>
     <t>Florida State</t>
   </si>
   <si>
     <t>Western Kentucky</t>
   </si>
   <si>
+    <t>Louisville</t>
+  </si>
+  <si>
     <t>Notre Dame</t>
   </si>
   <si>
     <t>Kansas</t>
   </si>
   <si>
+    <t>St. John's</t>
+  </si>
+  <si>
     <t>Pitt, UNLV</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/j/johnske04.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/j/jonestr01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/j/johnske04.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/mcderdo01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/c/colliza01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/s/sochaje01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/c/colliza01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/branhma01.html</t>
   </si>
   <si>
@@ -283,15 +295,15 @@
     <t>https://www.basketball-reference.com/players/l/langfro01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/j/johnsst04.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/v/vassede01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/bassech01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/d/dienggo01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/w/weslebl01.html</t>
   </si>
   <si>
@@ -299,6 +311,9 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/g/grahade01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/c/champju01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/birchkh01.html</t>
@@ -672,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -715,34 +730,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -750,34 +765,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -794,25 +809,25 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>225</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -820,34 +835,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -855,34 +870,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -905,19 +920,19 @@
         <v>180</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -934,25 +949,25 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>229</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -966,28 +981,28 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>230</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1001,28 +1016,28 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>216</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1030,34 +1045,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1065,34 +1080,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F12">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1100,7 +1115,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -1109,25 +1124,25 @@
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F13">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1141,7 +1156,7 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
         <v>32</v>
@@ -1150,19 +1165,19 @@
         <v>185</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1179,22 +1194,22 @@
         <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15">
         <v>221</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1208,28 +1223,28 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F16">
         <v>195</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1240,16 +1255,16 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F17">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
         <v>57</v>
@@ -1258,10 +1273,42 @@
         <v>65</v>
       </c>
       <c r="J17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18">
+        <v>233</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1282,6 +1329,7 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/San Antonio/San Antonio.xlsx
+++ b/rosters/2023/San Antonio/San Antonio.xlsx
@@ -49,36 +49,33 @@
     <t>Keldon Johnson</t>
   </si>
   <si>
+    <t>Doug McDermott</t>
+  </si>
+  <si>
     <t>Tre Jones</t>
   </si>
   <si>
-    <t>Doug McDermott</t>
-  </si>
-  <si>
     <t>Zach Collins</t>
   </si>
   <si>
     <t>Jeremy Sochan</t>
   </si>
   <si>
+    <t>Keita Bates-Diop</t>
+  </si>
+  <si>
     <t>Malaki Branham</t>
   </si>
   <si>
-    <t>Keita Bates-Diop</t>
-  </si>
-  <si>
-    <t>Isaiah Roby</t>
-  </si>
-  <si>
     <t>Romeo Langford</t>
   </si>
   <si>
+    <t>Charles Bassey</t>
+  </si>
+  <si>
     <t>Devin Vassell</t>
   </si>
   <si>
-    <t>Charles Bassey</t>
-  </si>
-  <si>
     <t>Gorgui Dieng</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
     <t>Julian Champagnie (TW)</t>
   </si>
   <si>
+    <t>Sandro Mamukelashvili</t>
+  </si>
+  <si>
     <t>Khem Birch</t>
   </si>
   <si>
@@ -115,12 +115,12 @@
     <t>6-5</t>
   </si>
   <si>
+    <t>6-7</t>
+  </si>
+  <si>
     <t>6-1</t>
   </si>
   <si>
-    <t>6-7</t>
-  </si>
-  <si>
     <t>6-11</t>
   </si>
   <si>
@@ -139,36 +139,33 @@
     <t>October 11, 1999</t>
   </si>
   <si>
+    <t>January 3, 1992</t>
+  </si>
+  <si>
     <t>January 8, 2000</t>
   </si>
   <si>
-    <t>January 3, 1992</t>
-  </si>
-  <si>
     <t>November 19, 1997</t>
   </si>
   <si>
     <t>May 20, 2003</t>
   </si>
   <si>
+    <t>January 23, 1996</t>
+  </si>
+  <si>
     <t>May 12, 2003</t>
   </si>
   <si>
-    <t>January 23, 1996</t>
-  </si>
-  <si>
-    <t>February 3, 1998</t>
-  </si>
-  <si>
     <t>October 25, 1999</t>
   </si>
   <si>
+    <t>October 28, 2000</t>
+  </si>
+  <si>
     <t>August 23, 2000</t>
   </si>
   <si>
-    <t>October 28, 2000</t>
-  </si>
-  <si>
     <t>January 18, 1990</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
     <t>June 29, 2001</t>
   </si>
   <si>
+    <t>May 23, 1999</t>
+  </si>
+  <si>
     <t>September 28, 1992</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>3</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -226,12 +226,12 @@
     <t>Kentucky</t>
   </si>
   <si>
+    <t>Creighton</t>
+  </si>
+  <si>
     <t>Duke</t>
   </si>
   <si>
-    <t>Creighton</t>
-  </si>
-  <si>
     <t>Gonzaga</t>
   </si>
   <si>
@@ -241,18 +241,15 @@
     <t>Ohio State</t>
   </si>
   <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
     <t>Indiana</t>
   </si>
   <si>
+    <t>Western Kentucky</t>
+  </si>
+  <si>
     <t>Florida State</t>
   </si>
   <si>
-    <t>Western Kentucky</t>
-  </si>
-  <si>
     <t>Louisville</t>
   </si>
   <si>
@@ -265,42 +262,42 @@
     <t>St. John's</t>
   </si>
   <si>
+    <t>Seton Hall</t>
+  </si>
+  <si>
     <t>Pitt, UNLV</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/j/johnske04.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/mcderdo01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/j/jonestr01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/mcderdo01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/c/colliza01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/s/sochaje01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/bateske01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/branhma01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/bateske01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/r/robyis01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/l/langfro01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/bassech01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/v/vassede01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/bassech01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/d/dienggo01.html</t>
   </si>
   <si>
@@ -314,6 +311,9 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/c/champju01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/m/mamuksa01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/birchkh01.html</t>
@@ -765,19 +765,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>33</v>
       </c>
       <c r="F3">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
@@ -800,19 +800,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
@@ -905,7 +905,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -914,10 +914,10 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F7">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -926,7 +926,7 @@
         <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
         <v>74</v>
@@ -940,7 +940,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -949,10 +949,10 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -961,7 +961,7 @@
         <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
         <v>74</v>
@@ -975,19 +975,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
@@ -1010,28 +1010,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F10">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="G10" t="s">
         <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
         <v>76</v>
@@ -1066,7 +1066,7 @@
         <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J11" t="s">
         <v>77</v>
@@ -1080,7 +1080,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1089,19 +1089,19 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F12">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
         <v>78</v>
@@ -1115,28 +1115,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F13">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="G13" t="s">
         <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -1150,19 +1150,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F14">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="G14" t="s">
         <v>52</v>
@@ -1172,9 +1172,6 @@
       </c>
       <c r="I14" t="s">
         <v>65</v>
-      </c>
-      <c r="J14" t="s">
-        <v>80</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>96</v>
@@ -1185,19 +1182,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="G15" t="s">
         <v>53</v>
@@ -1206,7 +1203,10 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="J15" t="s">
+        <v>80</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>97</v>
@@ -1217,19 +1217,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F16">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="G16" t="s">
         <v>54</v>
@@ -1238,7 +1238,7 @@
         <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J16" t="s">
         <v>81</v>
@@ -1251,17 +1251,20 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>54</v>
+      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F17">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G17" t="s">
         <v>55</v>
@@ -1270,7 +1273,7 @@
         <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J17" t="s">
         <v>82</v>

--- a/rosters/2023/San Antonio/San Antonio.xlsx
+++ b/rosters/2023/San Antonio/San Antonio.xlsx
@@ -88,12 +88,12 @@
     <t>Devonte' Graham</t>
   </si>
   <si>
+    <t>Sandro Mamukelashvili</t>
+  </si>
+  <si>
     <t>Julian Champagnie (TW)</t>
   </si>
   <si>
-    <t>Sandro Mamukelashvili</t>
-  </si>
-  <si>
     <t>Khem Birch</t>
   </si>
   <si>
@@ -178,12 +178,12 @@
     <t>February 22, 1995</t>
   </si>
   <si>
+    <t>May 23, 1999</t>
+  </si>
+  <si>
     <t>June 29, 2001</t>
   </si>
   <si>
-    <t>May 23, 1999</t>
-  </si>
-  <si>
     <t>September 28, 1992</t>
   </si>
   <si>
@@ -259,12 +259,12 @@
     <t>Kansas</t>
   </si>
   <si>
+    <t>Seton Hall</t>
+  </si>
+  <si>
     <t>St. John's</t>
   </si>
   <si>
-    <t>Seton Hall</t>
-  </si>
-  <si>
     <t>Pitt, UNLV</t>
   </si>
   <si>
@@ -310,10 +310,10 @@
     <t>https://www.basketball-reference.com/players/g/grahade01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/mamuksa01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/c/champju01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/mamuksa01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/birchkh01.html</t>
@@ -1217,19 +1217,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F16">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G16" t="s">
         <v>54</v>
@@ -1238,7 +1238,7 @@
         <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
         <v>81</v>
@@ -1252,19 +1252,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F17">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="G17" t="s">
         <v>55</v>
@@ -1273,7 +1273,7 @@
         <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J17" t="s">
         <v>82</v>

--- a/rosters/2023/San Antonio/San Antonio.xlsx
+++ b/rosters/2023/San Antonio/San Antonio.xlsx
@@ -76,12 +76,12 @@
     <t>Devin Vassell</t>
   </si>
   <si>
+    <t>Blake Wesley</t>
+  </si>
+  <si>
     <t>Gorgui Dieng</t>
   </si>
   <si>
-    <t>Blake Wesley</t>
-  </si>
-  <si>
     <t>Dominick Barlow (TW)</t>
   </si>
   <si>
@@ -166,12 +166,12 @@
     <t>August 23, 2000</t>
   </si>
   <si>
+    <t>March 16, 2003</t>
+  </si>
+  <si>
     <t>January 18, 1990</t>
   </si>
   <si>
-    <t>March 16, 2003</t>
-  </si>
-  <si>
     <t>May 26, 2003</t>
   </si>
   <si>
@@ -250,12 +250,12 @@
     <t>Florida State</t>
   </si>
   <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
     <t>Louisville</t>
   </si>
   <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
     <t>Kansas</t>
   </si>
   <si>
@@ -298,10 +298,10 @@
     <t>https://www.basketball-reference.com/players/v/vassede01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/w/weslebl01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/d/dienggo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/w/weslebl01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/barlodo01.html</t>
@@ -1080,28 +1080,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J12" t="s">
         <v>78</v>
@@ -1115,28 +1115,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F13">
-        <v>185</v>
+        <v>252</v>
       </c>
       <c r="G13" t="s">
         <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>

--- a/rosters/2023/San Antonio/San Antonio.xlsx
+++ b/rosters/2023/San Antonio/San Antonio.xlsx
@@ -58,24 +58,24 @@
     <t>Zach Collins</t>
   </si>
   <si>
+    <t>Keita Bates-Diop</t>
+  </si>
+  <si>
     <t>Jeremy Sochan</t>
   </si>
   <si>
-    <t>Keita Bates-Diop</t>
-  </si>
-  <si>
     <t>Malaki Branham</t>
   </si>
   <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
     <t>Romeo Langford</t>
   </si>
   <si>
     <t>Charles Bassey</t>
   </si>
   <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
     <t>Blake Wesley</t>
   </si>
   <si>
@@ -124,12 +124,12 @@
     <t>6-11</t>
   </si>
   <si>
+    <t>6-8</t>
+  </si>
+  <si>
     <t>6-9</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>6-4</t>
   </si>
   <si>
@@ -148,24 +148,24 @@
     <t>November 19, 1997</t>
   </si>
   <si>
+    <t>January 23, 1996</t>
+  </si>
+  <si>
     <t>May 20, 2003</t>
   </si>
   <si>
-    <t>January 23, 1996</t>
-  </si>
-  <si>
     <t>May 12, 2003</t>
   </si>
   <si>
+    <t>August 23, 2000</t>
+  </si>
+  <si>
     <t>October 25, 1999</t>
   </si>
   <si>
     <t>October 28, 2000</t>
   </si>
   <si>
-    <t>August 23, 2000</t>
-  </si>
-  <si>
     <t>March 16, 2003</t>
   </si>
   <si>
@@ -235,10 +235,13 @@
     <t>Gonzaga</t>
   </si>
   <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
     <t>Baylor</t>
   </si>
   <si>
-    <t>Ohio State</t>
+    <t>Florida State</t>
   </si>
   <si>
     <t>Indiana</t>
@@ -247,9 +250,6 @@
     <t>Western Kentucky</t>
   </si>
   <si>
-    <t>Florida State</t>
-  </si>
-  <si>
     <t>Notre Dame</t>
   </si>
   <si>
@@ -280,22 +280,22 @@
     <t>https://www.basketball-reference.com/players/c/colliza01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/bateske01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/s/sochaje01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/bateske01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/branhma01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/v/vassede01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/l/langfro01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/bassech01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/v/vassede01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/w/weslebl01.html</t>
@@ -870,19 +870,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
       </c>
       <c r="F6">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
@@ -891,7 +891,7 @@
         <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
         <v>73</v>
@@ -905,19 +905,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>37</v>
       </c>
       <c r="F7">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -926,7 +926,7 @@
         <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
         <v>74</v>
@@ -964,7 +964,7 @@
         <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>90</v>
@@ -975,7 +975,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -984,10 +984,10 @@
         <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F9">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
@@ -996,7 +996,7 @@
         <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
         <v>75</v>
@@ -1010,28 +1010,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F10">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="G10" t="s">
         <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J10" t="s">
         <v>76</v>
@@ -1045,28 +1045,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F11">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="G11" t="s">
         <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
         <v>77</v>
@@ -1159,7 +1159,7 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14">
         <v>221</v>
@@ -1261,7 +1261,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17">
         <v>220</v>
@@ -1293,7 +1293,7 @@
         <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18">
         <v>233</v>

--- a/rosters/2023/San Antonio/San Antonio.xlsx
+++ b/rosters/2023/San Antonio/San Antonio.xlsx
@@ -46,39 +46,39 @@
     <t>bbref url</t>
   </si>
   <si>
+    <t>Tre Jones</t>
+  </si>
+  <si>
+    <t>Keita Bates-Diop</t>
+  </si>
+  <si>
+    <t>Malaki Branham</t>
+  </si>
+  <si>
+    <t>Doug McDermott</t>
+  </si>
+  <si>
     <t>Keldon Johnson</t>
   </si>
   <si>
-    <t>Doug McDermott</t>
-  </si>
-  <si>
-    <t>Tre Jones</t>
-  </si>
-  <si>
     <t>Zach Collins</t>
   </si>
   <si>
-    <t>Keita Bates-Diop</t>
-  </si>
-  <si>
     <t>Jeremy Sochan</t>
   </si>
   <si>
-    <t>Malaki Branham</t>
+    <t>Romeo Langford</t>
   </si>
   <si>
     <t>Devin Vassell</t>
   </si>
   <si>
-    <t>Romeo Langford</t>
+    <t>Blake Wesley</t>
   </si>
   <si>
     <t>Charles Bassey</t>
   </si>
   <si>
-    <t>Blake Wesley</t>
-  </si>
-  <si>
     <t>Gorgui Dieng</t>
   </si>
   <si>
@@ -97,12 +97,12 @@
     <t>Khem Birch</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -112,21 +112,21 @@
     <t>SG</t>
   </si>
   <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
     <t>6-5</t>
   </si>
   <si>
     <t>6-7</t>
   </si>
   <si>
-    <t>6-1</t>
-  </si>
-  <si>
     <t>6-11</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>6-9</t>
   </si>
   <si>
@@ -136,39 +136,39 @@
     <t>6-10</t>
   </si>
   <si>
+    <t>January 8, 2000</t>
+  </si>
+  <si>
+    <t>January 23, 1996</t>
+  </si>
+  <si>
+    <t>May 12, 2003</t>
+  </si>
+  <si>
+    <t>January 3, 1992</t>
+  </si>
+  <si>
     <t>October 11, 1999</t>
   </si>
   <si>
-    <t>January 3, 1992</t>
-  </si>
-  <si>
-    <t>January 8, 2000</t>
-  </si>
-  <si>
     <t>November 19, 1997</t>
   </si>
   <si>
-    <t>January 23, 1996</t>
-  </si>
-  <si>
     <t>May 20, 2003</t>
   </si>
   <si>
-    <t>May 12, 2003</t>
+    <t>October 25, 1999</t>
   </si>
   <si>
     <t>August 23, 2000</t>
   </si>
   <si>
-    <t>October 25, 1999</t>
+    <t>March 16, 2003</t>
   </si>
   <si>
     <t>October 28, 2000</t>
   </si>
   <si>
-    <t>March 16, 2003</t>
-  </si>
-  <si>
     <t>January 18, 1990</t>
   </si>
   <si>
@@ -199,21 +199,21 @@
     <t>ca</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -223,36 +223,36 @@
     <t>5</t>
   </si>
   <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>Creighton</t>
+  </si>
+  <si>
     <t>Kentucky</t>
   </si>
   <si>
-    <t>Creighton</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
     <t>Gonzaga</t>
   </si>
   <si>
-    <t>Ohio State</t>
-  </si>
-  <si>
     <t>Baylor</t>
   </si>
   <si>
+    <t>Indiana</t>
+  </si>
+  <si>
     <t>Florida State</t>
   </si>
   <si>
-    <t>Indiana</t>
+    <t>Notre Dame</t>
   </si>
   <si>
     <t>Western Kentucky</t>
   </si>
   <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
     <t>Louisville</t>
   </si>
   <si>
@@ -268,37 +268,37 @@
     <t>Pitt, UNLV</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/j/jonestr01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/bateske01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/branhma01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/m/mcderdo01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/j/johnske04.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/mcderdo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/j/jonestr01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/c/colliza01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/bateske01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/s/sochaje01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/branhma01.html</t>
+    <t>https://www.basketball-reference.com/players/l/langfro01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/v/vassede01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/l/langfro01.html</t>
+    <t>https://www.basketball-reference.com/players/w/weslebl01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/bassech01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/w/weslebl01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/d/dienggo01.html</t>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -742,7 +742,7 @@
         <v>32</v>
       </c>
       <c r="F2">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
@@ -765,19 +765,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>33</v>
       </c>
       <c r="F3">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -812,7 +812,7 @@
         <v>34</v>
       </c>
       <c r="F4">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
@@ -824,7 +824,7 @@
         <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>86</v>
@@ -835,19 +835,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
       </c>
       <c r="F5">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
@@ -859,7 +859,7 @@
         <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>87</v>
@@ -870,19 +870,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
@@ -891,10 +891,10 @@
         <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>88</v>
@@ -905,19 +905,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -926,10 +926,10 @@
         <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>89</v>
@@ -940,19 +940,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -961,10 +961,10 @@
         <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>90</v>
@@ -975,7 +975,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -984,10 +984,10 @@
         <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F9">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
@@ -996,7 +996,7 @@
         <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
         <v>75</v>
@@ -1010,7 +1010,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -1019,10 +1019,10 @@
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F10">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="G10" t="s">
         <v>48</v>
@@ -1045,28 +1045,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="G11" t="s">
         <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J11" t="s">
         <v>77</v>
@@ -1080,28 +1080,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
         <v>78</v>
@@ -1156,7 +1156,7 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -1171,7 +1171,7 @@
         <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>96</v>
@@ -1188,10 +1188,10 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15">
         <v>195</v>
@@ -1203,7 +1203,7 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J15" t="s">
         <v>80</v>
@@ -1226,7 +1226,7 @@
         <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16">
         <v>240</v>
@@ -1258,10 +1258,10 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F17">
         <v>220</v>
@@ -1273,7 +1273,7 @@
         <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J17" t="s">
         <v>82</v>
